--- a/Output/包装软件需求.xlsx
+++ b/Output/包装软件需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15075" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15075" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="2" r:id="rId1"/>
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1041,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/Output/包装软件需求.xlsx
+++ b/Output/包装软件需求.xlsx
@@ -10,13 +10,16 @@
     <sheet name="需求" sheetId="2" r:id="rId1"/>
     <sheet name="标签样式" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="src_sample" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="标签" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>扫描界面要显示 料单里面的 信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +109,118 @@
       </rPr>
       <t>最好写 这块板在 第几包。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY16060405F01 主卧衣柜 莱蒙都会11-1-1202王先生.xlsx</t>
+  </si>
+  <si>
+    <t>订单编号：</t>
+  </si>
+  <si>
+    <t>ZY16060405F01</t>
+  </si>
+  <si>
+    <t>经销店面：</t>
+  </si>
+  <si>
+    <t>巨汇</t>
+  </si>
+  <si>
+    <t>产品类别：</t>
+  </si>
+  <si>
+    <t>主卧衣柜</t>
+  </si>
+  <si>
+    <t>正面条码</t>
+  </si>
+  <si>
+    <t>样板名称</t>
+  </si>
+  <si>
+    <t>是否扫描</t>
+  </si>
+  <si>
+    <t>第几包</t>
+  </si>
+  <si>
+    <t>扫描顺序</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>ZY16060405F011001</t>
+  </si>
+  <si>
+    <t>抽轨道板</t>
+  </si>
+  <si>
+    <t>ZY16060405F011002</t>
+  </si>
+  <si>
+    <t>ZY16060405F011003</t>
+  </si>
+  <si>
+    <t>顶封板</t>
+  </si>
+  <si>
+    <t>ZY16060405F011004</t>
+  </si>
+  <si>
+    <t>下导轨板</t>
+  </si>
+  <si>
+    <t>ZY16060405F011005</t>
+  </si>
+  <si>
+    <t>上导轨板</t>
+  </si>
+  <si>
+    <t>ZY16060405F02 次卧衣柜 莱蒙都会11-1-1202王先生.xlsx</t>
+  </si>
+  <si>
+    <t>ZY16060405F02</t>
+  </si>
+  <si>
+    <t>次卧衣柜</t>
+  </si>
+  <si>
+    <t>ZY16060405F021002</t>
+  </si>
+  <si>
+    <t>ZY16060405F021003</t>
+  </si>
+  <si>
+    <t>ZY16060405F021004</t>
+  </si>
+  <si>
+    <t>ZY16060405F021005</t>
+  </si>
+  <si>
+    <t>背横档</t>
+  </si>
+  <si>
+    <t>ZY16060405F021006</t>
+  </si>
+  <si>
+    <t>脚线</t>
+  </si>
+  <si>
+    <t>ZY16060405F021007</t>
+  </si>
+  <si>
+    <t>右侧板</t>
+  </si>
+  <si>
+    <t>ZY16060405F021008</t>
+  </si>
+  <si>
+    <t>当前处理工作簿</t>
+  </si>
+  <si>
+    <t>开始扫描</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,22 +930,26 @@
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>1049</v>
+      </c>
+    </row>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -853,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1039,13 +1158,514 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"ZY16060405F01 主卧衣柜 莱蒙都会11-1-1202王先生.xlsx,ZY16060405F02 次卧衣柜 莱蒙都会11-1-1202王先生.xlsx"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1040</v>
+      </c>
+      <c r="B1">
+        <f>ROUNDDOWN(A1,-1)+LOOKUP(MOD(A1,10),{0,3,8},{0,5,10})</f>
+        <v>1040</v>
+      </c>
+      <c r="C1">
+        <f>ROUNDDOWN(A1,-1)</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1041</v>
+      </c>
+      <c r="B2">
+        <f>ROUNDDOWN(A2,-1)+LOOKUP(MOD(A2,10),{0,3,8},{0,5,10})</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1042</v>
+      </c>
+      <c r="B3">
+        <f>ROUNDDOWN(A3,-1)+LOOKUP(MOD(A3,10),{0,3,8},{0,5,10})</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1043</v>
+      </c>
+      <c r="B4">
+        <f>ROUNDDOWN(A4,-1)+LOOKUP(MOD(A4,10),{0,3,8},{0,5,10})</f>
+        <v>1045</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>LOOKUP(E4,{0,3,8},{0,5,10})</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1044</v>
+      </c>
+      <c r="B5">
+        <f>ROUNDDOWN(A5,-1)+LOOKUP(MOD(A5,10),{0,3,8},{0,5,10})</f>
+        <v>1045</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>LOOKUP(E5,{0,3,8},{0,5,10})</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1045</v>
+      </c>
+      <c r="B6">
+        <f>ROUNDDOWN(A6,-1)+LOOKUP(MOD(A6,10),{0,3,8},{0,5,10})</f>
+        <v>1045</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f>LOOKUP(E6,{0,3,8},{0,5,10})</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1046</v>
+      </c>
+      <c r="B7">
+        <f>ROUNDDOWN(A7,-1)+LOOKUP(MOD(A7,10),{0,3,8},{0,5,10})</f>
+        <v>1045</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f>LOOKUP(E7,{0,3,8},{0,5,10})</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1047</v>
+      </c>
+      <c r="B8">
+        <f>ROUNDDOWN(A8,-1)+LOOKUP(MOD(A8,10),{0,3,8},{0,5,10})</f>
+        <v>1045</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f>LOOKUP(E8,{0,3,8},{0,5,10})</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1048</v>
+      </c>
+      <c r="B9">
+        <f>ROUNDDOWN(A9,-1)+LOOKUP(MOD(A9,10),{0,3,8},{0,5,10})</f>
+        <v>1050</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <f>LOOKUP(E9,{0,3,8},{0,5,10})</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1049</v>
+      </c>
+      <c r="B10">
+        <f>ROUNDDOWN(A10,-1)+LOOKUP(MOD(A10,10),{0,3,8},{0,5,10})</f>
+        <v>1050</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f>LOOKUP(E10,{0,3,8},{0,5,10})</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>LOOKUP(E11,{0,3,8},{0,5,10})</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f>LOOKUP(E12,{0,3,8},{0,5,10})</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <f>LOOKUP(E13,{0,3,8},{0,5,10})</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>